--- a/biology/Botanique/Des_odeurs/Des_odeurs.xlsx
+++ b/biology/Botanique/Des_odeurs/Des_odeurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Des odeurs (en grec ancien Περί Ὀδμῶν) est un ouvrage écrit par  Théophraste au cours du IVe siècle av. J.-C., consacré à l’étude des parfums et des plantes aromatiques. L'ouvrage, qui comprend soixante-neuf sections, est considéré comme le livre VIII du De causis plantarum.
-Le livre Des odeurs présente la description et l'étiologie des propriétés odoriférantes, les techniques de l’art des parfums ainsi que les usages médicinaux et domestiques des substances aromatiques[1].
+Le livre Des odeurs présente la description et l'étiologie des propriétés odoriférantes, les techniques de l’art des parfums ainsi que les usages médicinaux et domestiques des substances aromatiques.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(la) Adrianus Turnebus, ed., Theophrasti libellus De odoribus, ab Adriano Turnebo Latinitate donatus, et scholiis atque annotationibus illustratus, Lutetiae: Michaël Vascosanus, 1556  Texte sur Internet Archive Texte sur Digitale Bibliothek/Münchener Digitalisierungzentrum.
 J. de l'Estrade, Theophraste des Odeurs, mis de grec en nostre langue françoyse, avec annotations des lieux plus notables et difficiles avec l’histoire de quelques plantes., Paris, Guillaume Guillard, 1556 (lire en ligne)
